--- a/predictions/multiple/RandomForestRegressor/Neuropatías.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Neuropatías.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06654644338264919</v>
+        <v>0.06795978468760606</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9987843540750607</v>
+        <v>0.998758535676502</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1242824780424621</v>
+        <v>0.1228750314105707</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9908175577645272</v>
+        <v>0.9909215450489812</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/predictions/multiple/RandomForestRegressor/Neuropatías.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Neuropatías.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06795978468760606</v>
+        <v>0.06750333582058965</v>
       </c>
       <c r="C2" t="n">
-        <v>0.998758535676502</v>
+        <v>0.9987668739163376</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1228750314105707</v>
+        <v>0.1259519652509079</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9909215450489812</v>
+        <v>0.9906942099676707</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/predictions/multiple/RandomForestRegressor/Neuropatías.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Neuropatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06750333582058965</v>
+        <v>0.06709698005862574</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9987668739163376</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.9987742970737746</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2061507573731496</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -480,12 +488,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1259519652509079</v>
+        <v>0.1238840958787189</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9906942099676707</v>
-      </c>
-      <c r="D3" t="inlineStr">
+        <v>0.9908469916900799</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2764957451551044</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>

--- a/predictions/multiple/RandomForestRegressor/Neuropatías.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Neuropatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06709698005862574</v>
+        <v>0.06758712700587292</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9987742970737746</v>
+        <v>0.9987653432498173</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2061507573731496</v>
+        <v>0.2054940867380829</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -488,17 +507,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1238840958787189</v>
+        <v>0.1246865648199513</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9908469916900799</v>
+        <v>0.9907877023613291</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2764957451551044</v>
+        <v>0.2728317022455051</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>

--- a/predictions/multiple/RandomForestRegressor/Neuropatías.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Neuropatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06758712700587292</v>
+        <v>0.06827263118387658</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9987653432498173</v>
+        <v>0.9987528207119</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2054940867380829</v>
+        <v>0.206831987943706</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -499,6 +509,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>0.2668650318499809</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -507,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1246865648199513</v>
+        <v>0.1253955732895198</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9907877023613291</v>
+        <v>0.9907353182326988</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2728317022455051</v>
+        <v>0.276136362844067</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -534,6 +550,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>0.2668650318499809</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/predictions/multiple/RandomForestRegressor/Neuropatías.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Neuropatías.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06827263118387658</v>
+        <v>0.06770716763604098</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9987528207119</v>
+        <v>0.998763150391785</v>
       </c>
       <c r="D2" t="n">
-        <v>0.206831987943706</v>
+        <v>0.2063327117347419</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -506,14 +506,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.2668650318499809</v>
+        <v>0.3030967221833028</v>
       </c>
       <c r="H2" t="n">
-        <v>0.998</v>
+        <v>0.9129999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1253955732895198</v>
+        <v>0.1291537015519233</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9907353182326988</v>
+        <v>0.9904576540259131</v>
       </c>
       <c r="D3" t="n">
-        <v>0.276136362844067</v>
+        <v>0.277875880920276</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -547,14 +547,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.2668650318499809</v>
+        <v>0.3030967221833028</v>
       </c>
       <c r="H3" t="n">
-        <v>0.998</v>
+        <v>0.9129999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/multiple/RandomForestRegressor/Neuropatías.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Neuropatías.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06770716763604098</v>
+        <v>0.06747562906149941</v>
       </c>
       <c r="C2" t="n">
-        <v>0.998763150391785</v>
+        <v>0.9987673800532109</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2063327117347419</v>
+        <v>0.2063647345469068</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.3030967221833028</v>
+        <v>0.2675185060000028</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9129999999999999</v>
+        <v>0.987</v>
       </c>
     </row>
     <row r="3">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1291537015519233</v>
+        <v>0.1216235692055888</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9904576540259131</v>
+        <v>0.9910140076357281</v>
       </c>
       <c r="D3" t="n">
-        <v>0.277875880920276</v>
+        <v>0.2726675398736592</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.3030967221833028</v>
+        <v>0.2675185060000028</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9129999999999999</v>
+        <v>0.987</v>
       </c>
     </row>
   </sheetData>
